--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>No.</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Q 04</t>
+  </si>
+  <si>
+    <t>Q 05</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,9 @@
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -497,7 +502,10 @@
         <f>(1/5)*10</f>
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <f>(3/7)*10</f>
+        <v>4.2857142857142856</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -526,7 +534,10 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <f>(4/7)*10</f>
+        <v>5.7142857142857135</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -557,7 +568,10 @@
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <f>(3/7)*10</f>
+        <v>4.2857142857142856</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -588,7 +602,10 @@
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <f>(6/7)*10</f>
+        <v>8.5714285714285712</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -618,7 +635,10 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <f>(4/7)*10</f>
+        <v>5.7142857142857135</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -649,7 +669,9 @@
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -714,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -747,12 +769,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f>B2+C2+D2+E2</f>
-        <v>18.805555555555557</v>
+        <f>B2+C2+D2+E2+F2</f>
+        <v>23.091269841269842</v>
       </c>
       <c r="C14" s="6">
         <f>(B14*40)/B11</f>
-        <v>18.805555555555557</v>
+        <v>18.473015873015875</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -761,12 +783,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f>B3+C3+D3+E3</f>
-        <v>9.4444444444444446</v>
+        <f>B3+C3+D3+E3+F3</f>
+        <v>15.158730158730158</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B11</f>
-        <v>9.4444444444444446</v>
+        <v>12.126984126984125</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -775,12 +797,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f>B4+C4+D4+E4</f>
-        <v>26.416666666666664</v>
+        <f>B4+C4+D4+E4+F4</f>
+        <v>30.702380952380949</v>
       </c>
       <c r="C16" s="6">
         <f>(B16*40)/B11</f>
-        <v>26.416666666666664</v>
+        <v>24.56190476190476</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -789,12 +811,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f>B5+C5+D5+E5</f>
-        <v>30.777777777777779</v>
+        <f>B5+C5+D5+E5+F5</f>
+        <v>39.349206349206348</v>
       </c>
       <c r="C17" s="6">
         <f>(B17*40)/B11</f>
-        <v>30.777777777777779</v>
+        <v>31.479365079365081</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -803,12 +825,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f>B6+C6+D6+E6</f>
-        <v>22.638888888888889</v>
+        <f>B6+C6+D6+E6+F6</f>
+        <v>28.353174603174601</v>
       </c>
       <c r="C18" s="6">
         <f>(B18*40)/B11</f>
-        <v>22.638888888888889</v>
+        <v>22.682539682539684</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -817,12 +839,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f>B7+C7+D7+E7</f>
+        <f>B7+C7+D7+E7+F7</f>
         <v>31.888888888888889</v>
       </c>
       <c r="C19" s="6">
         <f>(B19*40)/B11</f>
-        <v>31.888888888888893</v>
+        <v>25.511111111111113</v>
       </c>
       <c r="F19" s="7"/>
     </row>

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -46,6 +46,18 @@
     <t xml:space="preserve">Q 07</t>
   </si>
   <si>
+    <t xml:space="preserve">H 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -53,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">h.Final(45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra point</t>
   </si>
   <si>
     <t xml:space="preserve">project</t>
@@ -301,10 +316,11 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.53"/>
@@ -335,12 +351,20 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,10 +399,18 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="I2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>9</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -413,10 +445,18 @@
         <f aca="false">(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -453,10 +493,18 @@
         <f aca="false">(1/3)*10</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -492,10 +540,18 @@
       <c r="H5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -531,10 +587,18 @@
         <f aca="false">(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="I6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -570,10 +634,18 @@
         <f aca="false">(1/3)*10</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -629,35 +701,37 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="E13" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,84 +739,138 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2</f>
-        <v>36.4246031746032</v>
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2</f>
+        <v>75.4246031746032</v>
       </c>
       <c r="C14" s="11" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>23.4158163265306</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>28.2842261904762</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <f aca="false">C14+D14+E14</f>
+        <v>33.2842261904762</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3</f>
         <v>31.8253968253968</v>
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>20.4591836734694</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>11.9345238095238</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <f aca="false">C15+D15+E15</f>
+        <v>11.9345238095238</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4</f>
-        <v>40.7023809523809</v>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
+        <v>40.702380952381</v>
       </c>
       <c r="C16" s="11" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>26.1658163265306</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>15.2633928571429</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <f aca="false">C16+D16+E16</f>
+        <v>15.2633928571429</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5</f>
-        <v>46.015873015873</v>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5</f>
+        <v>57.015873015873</v>
       </c>
       <c r="C17" s="11" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>29.5816326530612</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>21.3809523809524</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <f aca="false">C17+D17+E17</f>
+        <v>21.3809523809524</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6</f>
-        <v>45.0198412698413</v>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6</f>
+        <v>84.0198412698413</v>
       </c>
       <c r="C18" s="11" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>28.9413265306122</v>
-      </c>
-      <c r="F18" s="8"/>
+        <v>31.5074404761905</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <f aca="false">C18+D18+E18</f>
+        <v>36.5074404761905</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7</f>
         <v>41.8888888888889</v>
       </c>
       <c r="C19" s="11" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>26.9285714285714</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>15.7083333333333</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <f aca="false">C19+D19+E19</f>
+        <v>15.7083333333333</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">H 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 08</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -310,7 +313,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,8 +324,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -363,7 +370,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="2"/>
     </row>
@@ -411,7 +420,10 @@
       <c r="L2" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
@@ -457,7 +469,10 @@
       <c r="L3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="n">
+        <f aca="false">(3/3)*10</f>
+        <v>10</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -505,7 +520,10 @@
       <c r="L4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
@@ -552,7 +570,10 @@
       <c r="L5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
@@ -599,7 +620,10 @@
       <c r="L6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
@@ -646,7 +670,10 @@
       <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
@@ -701,7 +728,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>120</v>
@@ -709,7 +736,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -719,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,11 +767,11 @@
       </c>
       <c r="B14" s="10" t="n">
         <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2</f>
-        <v>75.4246031746032</v>
+        <v>82.0912698412699</v>
       </c>
       <c r="C14" s="11" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>28.2842261904762</v>
+        <v>30.7842261904762</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>5</v>
@@ -754,7 +781,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>33.2842261904762</v>
+        <v>35.7842261904762</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,11 +790,11 @@
       </c>
       <c r="B15" s="10" t="n">
         <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3</f>
-        <v>31.8253968253968</v>
+        <v>41.8253968253968</v>
       </c>
       <c r="C15" s="11" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>11.9345238095238</v>
+        <v>15.6845238095238</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -777,7 +804,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>11.9345238095238</v>
+        <v>15.6845238095238</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,11 +813,11 @@
       </c>
       <c r="B16" s="10" t="n">
         <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
-        <v>40.702380952381</v>
+        <v>47.3690476190476</v>
       </c>
       <c r="C16" s="11" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>15.2633928571429</v>
+        <v>17.7633928571429</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -800,7 +827,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>15.2633928571429</v>
+        <v>17.7633928571429</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,21 +836,21 @@
       </c>
       <c r="B17" s="10" t="n">
         <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5</f>
-        <v>57.015873015873</v>
+        <v>63.6825396825397</v>
       </c>
       <c r="C17" s="11" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>21.3809523809524</v>
+        <v>23.8809523809524</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>21.3809523809524</v>
+        <v>28.8809523809524</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,11 +859,11 @@
       </c>
       <c r="B18" s="10" t="n">
         <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6</f>
-        <v>84.0198412698413</v>
+        <v>90.6865079365079</v>
       </c>
       <c r="C18" s="11" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>31.5074404761905</v>
+        <v>34.0074404761905</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>5</v>
@@ -846,7 +873,7 @@
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>36.5074404761905</v>
+        <v>39.0074404761905</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,11 +882,11 @@
       </c>
       <c r="B19" s="10" t="n">
         <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7</f>
-        <v>41.8888888888889</v>
+        <v>48.5555555555556</v>
       </c>
       <c r="C19" s="11" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>15.7083333333333</v>
+        <v>18.2083333333333</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
@@ -869,7 +896,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>15.7083333333333</v>
+        <v>18.2083333333333</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">Q 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 06</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -83,10 +89,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -184,16 +189,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,32 +206,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -313,71 +314,75 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
@@ -424,11 +429,15 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
@@ -473,11 +482,15 @@
         <f aca="false">(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
@@ -524,11 +537,15 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="n">
@@ -574,11 +591,15 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
@@ -624,11 +645,15 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="n">
@@ -674,8 +699,12 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
@@ -728,15 +757,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -746,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,22 +795,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2</f>
-        <v>82.0912698412699</v>
-      </c>
-      <c r="C14" s="11" t="n">
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2</f>
+        <v>95.0912698412699</v>
+      </c>
+      <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>30.7842261904762</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v>30.5650510204082</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>35.7842261904762</v>
+        <v>35.5650510204082</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,22 +818,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3</f>
         <v>41.8253968253968</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>15.6845238095238</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>13.4438775510204</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>15.6845238095238</v>
+        <v>13.4438775510204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,22 +841,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4</f>
         <v>47.3690476190476</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>17.7633928571429</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v>15.2257653061225</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>17.7633928571429</v>
+        <v>15.2257653061225</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,22 +864,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5</f>
         <v>63.6825396825397</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>23.8809523809524</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v>20.469387755102</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>28.8809523809524</v>
+        <v>20.469387755102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,22 +887,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6</f>
         <v>90.6865079365079</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>34.0074404761905</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v>29.1492346938776</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>39.0074404761905</v>
+        <v>34.1492346938776</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,40 +910,40 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7</f>
         <v>48.5555555555556</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>18.2083333333333</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v>15.6071428571429</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>18.2083333333333</v>
+        <v>15.6071428571429</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="F22" s="8"/>
     </row>
   </sheetData>

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">H 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 10</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -311,10 +317,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,6 +386,12 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -435,6 +447,14 @@
       <c r="O2" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="P2" s="3" t="n">
+        <f aca="false">(23/30)*10</f>
+        <v>7.66666666666667</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <f aca="false">(3/4)*10</f>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -488,6 +508,14 @@
       <c r="O3" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" s="3" t="n">
+        <f aca="false">(21.5/30)*10</f>
+        <v>7.16666666666667</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <f aca="false">(0/4)*10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -543,6 +571,14 @@
       <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="P4" s="3" t="n">
+        <f aca="false">(13/30)*10</f>
+        <v>4.33333333333333</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <f aca="false">(0/4)*10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -597,6 +633,14 @@
       <c r="O5" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="P5" s="3" t="n">
+        <f aca="false">(0/30)*10</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <f aca="false">(0/4)*10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -651,6 +695,14 @@
       <c r="O6" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="P6" s="3" t="n">
+        <f aca="false">(26/30)*10</f>
+        <v>8.66666666666667</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <f aca="false">(3/4)*10</f>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -703,6 +755,14 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <f aca="false">(0/30)*10</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <f aca="false">(0/4)*10</f>
         <v>0</v>
       </c>
     </row>
@@ -757,15 +817,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -775,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,12 +855,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2</f>
-        <v>95.0912698412699</v>
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2</f>
+        <v>110.257936507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>30.5650510204082</v>
+        <v>31.0100446428571</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -810,7 +870,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>35.5650510204082</v>
+        <v>36.0100446428572</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,12 +878,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3</f>
-        <v>41.8253968253968</v>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3</f>
+        <v>48.9920634920635</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>13.4438775510204</v>
+        <v>13.7790178571429</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
@@ -833,7 +893,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>13.4438775510204</v>
+        <v>13.7790178571429</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,12 +901,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4</f>
-        <v>47.3690476190476</v>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4</f>
+        <v>51.702380952381</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>15.2257653061225</v>
+        <v>14.5412946428571</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
@@ -856,7 +916,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>15.2257653061225</v>
+        <v>14.5412946428571</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,12 +924,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5</f>
         <v>63.6825396825397</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>20.469387755102</v>
+        <v>17.9107142857143</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -879,7 +939,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>20.469387755102</v>
+        <v>17.9107142857143</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,12 +947,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6</f>
-        <v>90.6865079365079</v>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6</f>
+        <v>106.853174603175</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>29.1492346938776</v>
+        <v>30.0524553571429</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>5</v>
@@ -902,7 +962,7 @@
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>34.1492346938776</v>
+        <v>35.0524553571429</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,12 +970,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7</f>
         <v>48.5555555555556</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>15.6071428571429</v>
+        <v>13.65625</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -925,7 +985,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>15.6071428571429</v>
+        <v>13.65625</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -320,7 +320,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 11</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -204,11 +207,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,203 +320,215 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <f aca="false">(5/9)*10</f>
         <v>5.55555555555556</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <f aca="false">(3/8)*10</f>
         <v>3.75</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <f aca="false">(6/8)*10</f>
         <v>7.5</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <f aca="false">(1/5)*10</f>
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <f aca="false">(3/7)*10</f>
         <v>4.28571428571429</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="n">
+      <c r="G2" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="M2" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="N2" s="3" t="n">
+      <c r="M2" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="2" t="n">
         <f aca="false">(23/30)*10</f>
         <v>7.66666666666667</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="2" t="n">
         <f aca="false">(3/4)*10</f>
         <v>7.5</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <f aca="false">(23/25)*10</f>
+        <v>9.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <f aca="false">(4/9)*10</f>
         <v>4.44444444444444</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <f aca="false">(4/8)*10</f>
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <f aca="false">(4/7)*10</f>
         <v>5.71428571428571</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="H3" s="3" t="n">
+      <c r="G3" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <f aca="false">(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="n">
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <f aca="false">(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="n">
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
         <f aca="false">(21.5/30)*10</f>
         <v>7.16666666666667</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="2" t="n">
         <f aca="false">(0/4)*10</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -521,124 +536,131 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <f aca="false">(6/9)*10</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <f aca="false">(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <f aca="false">(3/8)*10</f>
         <v>3.75</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <f aca="false">(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <f aca="false">(3/7)*10</f>
         <v>4.28571428571429</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="H4" s="3" t="n">
+      <c r="G4" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <f aca="false">(1/3)*10</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="n">
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
         <f aca="false">(13/30)*10</f>
         <v>4.33333333333333</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="2" t="n">
         <f aca="false">(0/4)*10</f>
         <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <f aca="false">(10.5/25)*10</f>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <f aca="false">(7/9)*10</f>
         <v>7.77777777777778</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <f aca="false">(8/8)*10</f>
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <f aca="false">(4/8)*10</f>
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <f aca="false">(6/7)*10</f>
         <v>8.57142857142857</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="n">
+      <c r="G5" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="n">
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
         <f aca="false">(0/30)*10</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="2" t="n">
         <f aca="false">(0/4)*10</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -646,186 +668,194 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <f aca="false">(8/9)*10</f>
         <v>8.88888888888889</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="2" t="n">
         <f aca="false">(7/8)*10</f>
         <v>8.75</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <f aca="false">(4/8)*10</f>
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <f aca="false">(4/7)*10</f>
         <v>5.71428571428571</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="H6" s="3" t="n">
+      <c r="G6" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <f aca="false">(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3" t="n">
+      <c r="I6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="n">
+      <c r="K6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
         <f aca="false">(26/30)*10</f>
         <v>8.66666666666667</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="Q6" s="2" t="n">
         <f aca="false">(3/4)*10</f>
         <v>7.5</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <f aca="false">(20/25)*10</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <f aca="false">(8/9)*10</f>
         <v>8.88888888888889</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="2" t="n">
         <f aca="false">(7/8)*10</f>
         <v>8.75</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <f aca="false">(5/8)*10</f>
         <v>6.25</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <f aca="false">(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <f aca="false">(1/3)*10</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <f aca="false">(2/3)*10</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="n">
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
         <f aca="false">(0/30)*10</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="2" t="n">
         <f aca="false">(0/4)*10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R7" s="2" t="n">
+        <f aca="false">(7/25)*10</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -835,32 +865,32 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2</f>
-        <v>110.257936507937</v>
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2</f>
+        <v>119.457936507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>31.0100446428571</v>
+        <v>31.6212184873951</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -870,20 +900,20 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>36.0100446428572</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36.6212184873951</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3</f>
         <v>48.9920634920635</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>13.7790178571429</v>
+        <v>12.968487394958</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
@@ -893,20 +923,20 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>13.7790178571429</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12.968487394958</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4</f>
-        <v>51.702380952381</v>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4</f>
+        <v>55.902380952381</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>14.5412946428571</v>
+        <v>14.7976890756303</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
@@ -916,20 +946,20 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>14.5412946428571</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14.7976890756303</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5</f>
         <v>63.6825396825397</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>17.9107142857143</v>
+        <v>16.8571428571429</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -939,20 +969,20 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>17.9107142857143</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16.8571428571429</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6</f>
-        <v>106.853174603175</v>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6</f>
+        <v>114.853174603175</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>30.0524553571429</v>
+        <v>30.4023109243699</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>5</v>
@@ -962,20 +992,20 @@
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>35.0524553571429</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35.4023109243699</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7</f>
-        <v>48.5555555555556</v>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7</f>
+        <v>51.3555555555556</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>13.65625</v>
+        <v>13.5941176470588</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -985,22 +1015,22 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>13.65625</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13.5941176470588</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t xml:space="preserve">Q 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 10</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -320,7 +329,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
@@ -341,8 +350,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="18" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,6 +409,15 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -467,6 +485,15 @@
         <f aca="false">(23/25)*10</f>
         <v>9.2</v>
       </c>
+      <c r="S2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -531,6 +558,15 @@
       <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -598,6 +634,15 @@
         <f aca="false">(10.5/25)*10</f>
         <v>4.2</v>
       </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -663,6 +708,15 @@
       <c r="R5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -729,6 +783,15 @@
         <f aca="false">(20/25)*10</f>
         <v>8</v>
       </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -794,6 +857,15 @@
       <c r="R7" s="2" t="n">
         <f aca="false">(7/25)*10</f>
         <v>2.8</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,15 +919,15 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -865,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,12 +957,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2</f>
-        <v>119.457936507937</v>
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2</f>
+        <v>148.457936507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>31.6212184873951</v>
+        <v>33.4030357142857</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -900,7 +972,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>36.6212184873951</v>
+        <v>38.4030357142857</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,12 +980,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3</f>
         <v>48.9920634920635</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>12.968487394958</v>
+        <v>11.0232142857143</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
@@ -923,7 +995,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>12.968487394958</v>
+        <v>11.0232142857143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,12 +1003,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4</f>
         <v>55.902380952381</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>14.7976890756303</v>
+        <v>12.5780357142857</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
@@ -946,7 +1018,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>14.7976890756303</v>
+        <v>12.5780357142857</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,12 +1026,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5</f>
         <v>63.6825396825397</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>16.8571428571429</v>
+        <v>14.3285714285714</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -969,7 +1041,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>16.8571428571429</v>
+        <v>14.3285714285714</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,12 +1049,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6</f>
         <v>114.853174603175</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>30.4023109243699</v>
+        <v>25.8419642857143</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>5</v>
@@ -992,7 +1064,7 @@
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>35.4023109243699</v>
+        <v>30.8419642857143</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,12 +1072,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7</f>
         <v>51.3555555555556</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>13.5941176470588</v>
+        <v>11.555</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -1015,7 +1087,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>13.5941176470588</v>
+        <v>11.555</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -85,13 +85,16 @@
     <t xml:space="preserve">H 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Q 13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">h.Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h.Final(45)</t>
+    <t xml:space="preserve">Q &amp; H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q &amp; H ( 45 )</t>
   </si>
   <si>
     <t xml:space="preserve">Extra point</t>
@@ -329,17 +332,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.17"/>
@@ -350,8 +353,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="18" style="2" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,6 +421,9 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -494,6 +500,10 @@
       <c r="U2" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="V2" s="2" t="n">
+        <f aca="false">(7/7)*10</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -567,6 +577,10 @@
       <c r="U3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="V3" s="2" t="n">
+        <f aca="false">(6/7)*10</f>
+        <v>8.57142857142857</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -643,6 +657,10 @@
       <c r="U4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="V4" s="2" t="n">
+        <f aca="false">(6/7)*10</f>
+        <v>8.57142857142857</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -717,6 +735,9 @@
       <c r="U5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -792,6 +813,10 @@
       <c r="U6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="V6" s="2" t="n">
+        <f aca="false">(7/7)*10</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -866,6 +891,10 @@
       </c>
       <c r="U7" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <f aca="false">(4/7)*10</f>
+        <v>5.71428571428571</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,15 +948,15 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -937,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,12 +986,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2</f>
-        <v>148.457936507937</v>
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2+V2</f>
+        <v>158.457936507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>33.4030357142857</v>
+        <v>33.9552721088435</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
@@ -972,7 +1001,7 @@
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>38.4030357142857</v>
+        <v>38.9552721088435</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,12 +1009,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3</f>
-        <v>48.9920634920635</v>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3</f>
+        <v>57.5634920634921</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>11.0232142857143</v>
+        <v>12.3350340136054</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
@@ -995,7 +1024,7 @@
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>11.0232142857143</v>
+        <v>12.3350340136054</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,12 +1032,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4</f>
-        <v>55.902380952381</v>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4</f>
+        <v>64.4738095238095</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>12.5780357142857</v>
+        <v>13.8158163265306</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
@@ -1018,7 +1047,7 @@
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>12.5780357142857</v>
+        <v>13.8158163265306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,12 +1055,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5</f>
         <v>63.6825396825397</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>14.3285714285714</v>
+        <v>13.6462585034014</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -1041,7 +1070,7 @@
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>14.3285714285714</v>
+        <v>13.6462585034014</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,12 +1078,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6</f>
-        <v>114.853174603175</v>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6</f>
+        <v>124.853174603175</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>25.8419642857143</v>
+        <v>26.7542517006803</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>5</v>
@@ -1064,7 +1093,7 @@
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>30.8419642857143</v>
+        <v>31.7542517006803</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,12 +1101,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7</f>
-        <v>51.3555555555556</v>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7</f>
+        <v>57.0698412698413</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>11.555</v>
+        <v>12.2292517006803</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -1087,7 +1116,7 @@
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>11.555</v>
+        <v>12.2292517006803</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 13</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -332,10 +335,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,8 +356,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="2" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="18" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,6 +427,9 @@
       <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -504,6 +510,9 @@
         <f aca="false">(7/7)*10</f>
         <v>10</v>
       </c>
+      <c r="W2" s="2" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -581,6 +590,9 @@
         <f aca="false">(6/7)*10</f>
         <v>8.57142857142857</v>
       </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -661,6 +673,9 @@
         <f aca="false">(6/7)*10</f>
         <v>8.57142857142857</v>
       </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -738,6 +753,9 @@
       <c r="V5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -817,6 +835,9 @@
         <f aca="false">(7/7)*10</f>
         <v>10</v>
       </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -895,6 +916,9 @@
       <c r="V7" s="2" t="n">
         <f aca="false">(4/7)*10</f>
         <v>5.71428571428571</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,15 +972,15 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -966,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,22 +1010,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2+V2</f>
-        <v>158.457936507937</v>
+        <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2+V2+W2</f>
+        <v>167.957936507937</v>
       </c>
       <c r="C14" s="10" t="n">
         <f aca="false">(B14*45)/B11</f>
-        <v>33.9552721088435</v>
+        <v>34.3550324675325</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="n">
         <f aca="false">C14+D14+E14</f>
-        <v>38.9552721088435</v>
+        <v>44.3550324675325</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,22 +1033,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3</f>
+        <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3</f>
         <v>57.5634920634921</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>12.3350340136054</v>
+        <v>11.7743506493506</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>12.3350340136054</v>
+        <v>16.2743506493506</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,22 +1056,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4</f>
+        <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4</f>
         <v>64.4738095238095</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>13.8158163265306</v>
+        <v>13.1878246753247</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>13.8158163265306</v>
+        <v>17.1878246753247</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,22 +1079,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5</f>
+        <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5</f>
         <v>63.6825396825397</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>13.6462585034014</v>
+        <v>13.025974025974</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>13.6462585034014</v>
+        <v>17.025974025974</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,22 +1102,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6</f>
+        <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6</f>
         <v>124.853174603175</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>26.7542517006803</v>
+        <v>25.5381493506494</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>31.7542517006803</v>
+        <v>35.5381493506493</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,22 +1125,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7</f>
+        <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7</f>
         <v>57.0698412698413</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>12.2292517006803</v>
+        <v>11.6733766233766</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>12.2292517006803</v>
+        <v>15.6733766233766</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Total (WEB 03)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q &amp; H</t>
   </si>
   <si>
@@ -106,7 +109,25 @@
     <t xml:space="preserve">project</t>
   </si>
   <si>
-    <t xml:space="preserve">Final Scores</t>
+    <t xml:space="preserve">Final Scores (WEB 03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL (WEB PACK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 01 (x1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 02 (x1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB 03 (x2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINAL (100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -117,7 +138,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,8 +161,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFD7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,7 +179,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
     <fill>
@@ -163,7 +191,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,6 +204,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF650953"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
   </fills>
@@ -213,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,6 +301,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +328,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -283,16 +341,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF650953"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -316,7 +374,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -335,20 +393,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="8.53"/>
@@ -980,7 +1038,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -990,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,9 +1219,143 @@
       <c r="C22" s="10"/>
       <c r="F22" s="8"/>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13" t="n">
+        <f aca="false">F15</f>
+        <v>16.2743506493506</v>
+      </c>
+      <c r="E28" s="13" t="n">
+        <f aca="false">((B28*1)+(C28*1.5)+(D28*2))/4.5</f>
+        <v>30.566378066378</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>124</v>
+      </c>
+      <c r="D30" s="13" t="n">
+        <f aca="false">F17</f>
+        <v>17.025974025974</v>
+      </c>
+      <c r="E30" s="13" t="n">
+        <f aca="false">((B30*1)+(C30*1.5)+(D30*2))/4.5</f>
+        <v>72.4559884559884</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="C32" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="D32" s="13" t="n">
+        <f aca="false">F19</f>
+        <v>15.6733766233766</v>
+      </c>
+      <c r="E32" s="13" t="n">
+        <f aca="false">((B32*1)+(C32*1.5)+(D32*2))/4.5</f>
+        <v>33.4103896103896</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -304,7 +304,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,7 +396,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/106/106.xlsx
+++ b/106/106.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -112,6 +112,15 @@
     <t xml:space="preserve">Final Scores (WEB 03)</t>
   </si>
   <si>
+    <t xml:space="preserve">MFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTAL (WEB PACK)</t>
   </si>
   <si>
@@ -125,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">FINAL (100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -164,6 +170,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFD7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -202,14 +214,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FF650953"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF650953"/>
-        <bgColor rgb="FF800080"/>
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -259,7 +271,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,11 +312,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,7 +332,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,7 +424,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,7 +436,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.21"/>
@@ -1062,16 +1090,19 @@
       <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="11" t="n">
         <f aca="false">B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+R2+S2+T2+U2+V2+W2</f>
         <v>167.957936507937</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="11" t="n">
         <f aca="false">(B14*45)/B11</f>
         <v>34.3550324675325</v>
       </c>
@@ -1085,16 +1116,20 @@
         <f aca="false">C14+D14+E14</f>
         <v>44.3550324675325</v>
       </c>
+      <c r="G14" s="12" t="n">
+        <f aca="false">((F14-F21)*40)/(F22-F21)+60</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="11" t="n">
         <f aca="false">B3+C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3</f>
         <v>57.5634920634921</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">(B15*45)/B11</f>
         <v>11.7743506493506</v>
       </c>
@@ -1108,16 +1143,20 @@
         <f aca="false">C15+D15+E15</f>
         <v>16.2743506493506</v>
       </c>
+      <c r="G15" s="12" t="n">
+        <f aca="false">((F15-F21)*40)/(F22-F21)+60</f>
+        <v>60.8381301682712</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="11" t="n">
         <f aca="false">B4+C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4</f>
         <v>64.4738095238095</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="11" t="n">
         <f aca="false">(B16*45)/B11</f>
         <v>13.1878246753247</v>
       </c>
@@ -1131,16 +1170,20 @@
         <f aca="false">C16+D16+E16</f>
         <v>17.1878246753247</v>
       </c>
+      <c r="G16" s="12" t="n">
+        <f aca="false">((F16-F21)*40)/(F22-F21)+60</f>
+        <v>62.1120789680721</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="11" t="n">
         <f aca="false">B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5</f>
         <v>63.6825396825397</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="11" t="n">
         <f aca="false">(B17*45)/B11</f>
         <v>13.025974025974</v>
       </c>
@@ -1154,16 +1197,20 @@
         <f aca="false">C17+D17+E17</f>
         <v>17.025974025974</v>
       </c>
+      <c r="G17" s="12" t="n">
+        <f aca="false">((F17-F21)*40)/(F22-F21)+60</f>
+        <v>61.8863588768331</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="11" t="n">
         <f aca="false">B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6</f>
         <v>124.853174603175</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="11" t="n">
         <f aca="false">(B18*45)/B11</f>
         <v>25.5381493506494</v>
       </c>
@@ -1175,18 +1222,22 @@
       </c>
       <c r="F18" s="8" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>35.5381493506493</v>
+        <v>35.5381493506494</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">((F18-F21)*40)/(F22-F21)+60</f>
+        <v>87.7038018100624</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="11" t="n">
         <f aca="false">B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+R7+S7+T7+U7+V7+W7</f>
         <v>57.0698412698413</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="11" t="n">
         <f aca="false">(B19*45)/B11</f>
         <v>11.6733766233766</v>
       </c>
@@ -1200,156 +1251,180 @@
         <f aca="false">C19+D19+E19</f>
         <v>15.6733766233766</v>
       </c>
+      <c r="G19" s="12" t="n">
+        <f aca="false">((F19-F21)*40)/(F22-F21)+60</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="E21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <f aca="false">MIN(F14:F19)</f>
+        <v>15.6733766233766</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="E22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <f aca="false">MAX(F14:F19)</f>
+        <v>44.3550324675325</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="A26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="C26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="B27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16" t="n">
+        <f aca="false">G14</f>
+        <v>100</v>
+      </c>
+      <c r="E27" s="16" t="n">
+        <f aca="false">D27</f>
+        <v>100</v>
+      </c>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="16" t="n">
+        <v>81.58</v>
+      </c>
+      <c r="C28" s="16" t="n">
+        <v>60.83</v>
+      </c>
+      <c r="D28" s="16" t="n">
+        <f aca="false">G15</f>
+        <v>60.8381301682712</v>
+      </c>
+      <c r="E28" s="16" t="n">
+        <f aca="false">((B28*1)+(C28*1.5)+(D28*2))/4.5</f>
+        <v>65.4447245192316</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16" t="n">
+        <f aca="false">G16</f>
+        <v>62.1120789680721</v>
+      </c>
+      <c r="E29" s="16" t="n">
+        <f aca="false">D29</f>
+        <v>62.1120789680721</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C30" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D30" s="16" t="n">
+        <f aca="false">G17</f>
+        <v>61.8863588768331</v>
+      </c>
+      <c r="E30" s="16" t="n">
+        <f aca="false">((B30*1)+(C30*1.5)+(D30*2))/4.5</f>
+        <v>83.0606039452592</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16" t="n">
+        <f aca="false">G18</f>
+        <v>87.7038018100624</v>
+      </c>
+      <c r="E31" s="16" t="n">
+        <f aca="false">D31</f>
+        <v>87.7038018100624</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="16" t="n">
+        <v>88.6</v>
+      </c>
+      <c r="C32" s="16" t="n">
         <v>60</v>
       </c>
-      <c r="C28" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" s="13" t="n">
-        <f aca="false">F15</f>
-        <v>16.2743506493506</v>
-      </c>
-      <c r="E28" s="13" t="n">
-        <f aca="false">((B28*1)+(C28*1.5)+(D28*2))/4.5</f>
-        <v>30.566378066378</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" s="13" t="n">
-        <v>106</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>124</v>
-      </c>
-      <c r="D30" s="13" t="n">
-        <f aca="false">F17</f>
-        <v>17.025974025974</v>
-      </c>
-      <c r="E30" s="13" t="n">
-        <f aca="false">((B30*1)+(C30*1.5)+(D30*2))/4.5</f>
-        <v>72.4559884559884</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" s="13" t="n">
-        <v>77</v>
-      </c>
-      <c r="C32" s="13" t="n">
-        <v>28</v>
-      </c>
-      <c r="D32" s="13" t="n">
-        <f aca="false">F19</f>
-        <v>15.6733766233766</v>
-      </c>
-      <c r="E32" s="13" t="n">
+      <c r="D32" s="16" t="n">
+        <f aca="false">G19</f>
+        <v>60</v>
+      </c>
+      <c r="E32" s="16" t="n">
         <f aca="false">((B32*1)+(C32*1.5)+(D32*2))/4.5</f>
-        <v>33.4103896103896</v>
+        <v>66.3555555555556</v>
       </c>
     </row>
   </sheetData>
